--- a/backened/public/users.xlsx
+++ b/backened/public/users.xlsx
@@ -11,24 +11,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Mobile</t>
   </si>
   <si>
     <t>Role</t>
@@ -116,6 +116,24 @@
   </si>
   <si>
     <t>8590452103</t>
+  </si>
+  <si>
+    <t>vaibhav</t>
+  </si>
+  <si>
+    <t>vaibhav@123</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>vaibhavsinghrajput456@gmail.com</t>
+  </si>
+  <si>
+    <t>9910500502</t>
   </si>
 </sst>
 </file>
@@ -496,11 +514,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
@@ -643,8 +662,31 @@
         <v>10</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/backened/public/users.xlsx
+++ b/backened/public/users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Username</t>
   </si>
@@ -134,6 +134,21 @@
   </si>
   <si>
     <t>9910500502</t>
+  </si>
+  <si>
+    <t>sachin</t>
+  </si>
+  <si>
+    <t>sachin@123</t>
+  </si>
+  <si>
+    <t>aggarwal</t>
+  </si>
+  <si>
+    <t>sachinaggarwal@gmail.com</t>
+  </si>
+  <si>
+    <t>9846846473</t>
   </si>
 </sst>
 </file>
@@ -514,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
@@ -685,6 +700,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
